--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-device.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé à partir de Device dans le contexte de l'Annuaire Santé pour décrire les équipements matériels lourds ('EML') mis en oeuvre au sein d'un établissement.</t>
+    <t>Profil générique créé à partir de Device dans le contexte de l'Annuaire Santé pour décrire les Equipements Matériels Lourds (EML) mis en place au sein d'un établissement.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -449,7 +449,7 @@
     <t>Device.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -999,7 +999,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1086,7 +1086,7 @@
     <t>Device.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1331,7 +1331,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -1647,7 +1647,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1769,7 +1769,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -2832,7 +2832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>195</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>406</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>426</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>444</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>473</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>528</v>
       </c>
@@ -15062,12 +15062,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN114">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
